--- a/fishdata.xlsx
+++ b/fishdata.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="45">
   <si>
     <t>VARIABLE</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>ZEFL</t>
+  </si>
+  <si>
+    <t>TMPTMP</t>
   </si>
 </sst>
 </file>
@@ -555,12 +558,15 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
